--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshgupta/eclipse-workspace/APITestingFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5947D-CE42-5846-B58F-BA2A335DD652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204EC1E-353F-9042-96AD-269733E7286E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="16220" xr2:uid="{EFA7D06A-9B5C-184A-867D-D34BCBBA1B51}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_NisbjfAwiTA6Lb</t>
-  </si>
-  <si>
-    <t>cus_NisUn0o1lHrK6A</t>
+    <t>cus_NlVkagJVmaMVaI</t>
+  </si>
+  <si>
+    <t>cus_NlVk9awbDAlMzI</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
